--- a/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/parameter.xlsx
+++ b/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/parameter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\jxls\jxlsreports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AB7A16-1AD2-4707-8D0E-04C79C50FCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA62B7D-4182-48EC-B1B9-8CFC31F126FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24075" windowHeight="12885" xr2:uid="{0CFAB478-1062-41D7-AB44-5890181C4E7C}"/>
   </bookViews>
@@ -52,7 +52,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="jdbc.query('SELECT CUS_CUSTOMERNAME name, CUS_PHONE phone FROM T_AGG_CUSTOMER WHERE CUS_CUSTOMERNAME = ${cusName}')" var="customer" lastCell="B2")
+          <t xml:space="preserve">jx:each(items="jdbc.query('SELECT CUS_CUSTOMERNAME name, CUS_PHONE phone FROM T_AGG_CUSTOMER WHERE CUS_CUSTOMERNUMBER = ${cusNumber}')" var="customer" lastCell="B2")
 </t>
         </r>
       </text>
@@ -76,13 +76,13 @@
     <t>${customer.phone}</t>
   </si>
   <si>
-    <t>(Version: 1.0.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0) </t>
-  </si>
-  <si>
-    <t>(You need a text parameter in ReportServer with key=cusName. You can then pass any customer name, e.g. Marseille Mini Autos)</t>
+    <t>(Version: 1.0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0-6053) </t>
+  </si>
+  <si>
+    <t>(You need a text parameter in ReportServer with key=cusNumber. You can then pass any customer name, e.g. 350)</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/parameter.xlsx
+++ b/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/parameter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA62B7D-4182-48EC-B1B9-8CFC31F126FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9078AA6-1F54-4B96-B126-F7A03A0D7848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24075" windowHeight="12885" xr2:uid="{0CFAB478-1062-41D7-AB44-5890181C4E7C}"/>
   </bookViews>
@@ -76,13 +76,13 @@
     <t>${customer.phone}</t>
   </si>
   <si>
-    <t>(Version: 1.0.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0-6053) </t>
-  </si>
-  <si>
-    <t>(You need a text parameter in ReportServer with key=cusNumber. You can then pass any customer name, e.g. 350)</t>
+    <t>(You need a text parameter in ReportServer with key=cusNumber. You can then pass any customer number, e.g. 350)</t>
+  </si>
+  <si>
+    <t>(Version: 1.0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Last tested with: ReportServer 4.1.0-6064) </t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,17 +482,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
